--- a/docs/requirements/data-list/User Messages.xlsx
+++ b/docs/requirements/data-list/User Messages.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="855" yWindow="75" windowWidth="14505" windowHeight="8145" activeTab="1"/>
+    <workbookView xWindow="855" yWindow="75" windowWidth="14505" windowHeight="8145" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="358">
   <si>
     <t>Page</t>
   </si>
@@ -1084,6 +1084,56 @@
   </si>
   <si>
     <t>UC144</t>
+  </si>
+  <si>
+    <t>S0110</t>
+  </si>
+  <si>
+    <t>Owner / Authorized Business</t>
+  </si>
+  <si>
+    <t>Owner / Authorized Business Role</t>
+  </si>
+  <si>
+    <t>Select Owner / Authorized Business</t>
+  </si>
+  <si>
+    <t>Background Study</t>
+  </si>
+  <si>
+    <t>S0103</t>
+  </si>
+  <si>
+    <t>S0104</t>
+  </si>
+  <si>
+    <t>S0105</t>
+  </si>
+  <si>
+    <t>S0106</t>
+  </si>
+  <si>
+    <t>S0107</t>
+  </si>
+  <si>
+    <t>required but missing roles have not all been added</t>
+  </si>
+  <si>
+    <t>Please add all missing roles</t>
+  </si>
+  <si>
+    <t>Organizations
+Individuals
+Service Agent</t>
+  </si>
+  <si>
+    <t>UC033</t>
+  </si>
+  <si>
+    <t>S0200</t>
+  </si>
+  <si>
+    <t>Provider Profile Documents</t>
   </si>
 </sst>
 </file>
@@ -1635,11 +1685,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3432,7 +3482,7 @@
         <v>296</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>279</v>
+        <v>347</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>284</v>
@@ -3455,7 +3505,7 @@
         <v>296</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>279</v>
+        <v>347</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>284</v>
@@ -3467,6 +3517,29 @@
         <v>135</v>
       </c>
       <c r="H83" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="H84" s="4" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3490,11 +3563,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4181,6 +4254,142 @@
       </c>
       <c r="F35" s="3" t="s">
         <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -5291,16 +5500,16 @@
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44A8E780-3359-458C-9DB6-552D489B270F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a2741f7e-cf52-4b71-b717-1a57b4501045"/>
     <ds:schemaRef ds:uri="8fb07803-c468-4910-8515-b6c9a57278a1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a2741f7e-cf52-4b71-b717-1a57b4501045"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>